--- a/runs/run262/NotionalETEOutput262.xlsx
+++ b/runs/run262/NotionalETEOutput262.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_HELLMASKER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_412.MISSILE_BRAVER0_412</t>
+    <t>MISSILE_HELLMASKER2_47.MISSILE_HELLMASKER2_47</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_HELLMASKER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1481.578739663071</v>
+        <v>-1541.54729368742</v>
       </c>
       <c r="J2">
-        <v>2053.858371617835</v>
+        <v>2018.958359301465</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1483.001920835898</v>
+        <v>-1484.170552002027</v>
       </c>
       <c r="J3">
-        <v>1872.498911874032</v>
+        <v>1940.899247387235</v>
       </c>
       <c r="K3">
-        <v>313.7269051996714</v>
+        <v>307.4977128209601</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1449.581188110359</v>
+        <v>-1372.692940559786</v>
       </c>
       <c r="J4">
-        <v>1819.066870729324</v>
+        <v>1955.622926805662</v>
       </c>
       <c r="K4">
-        <v>592.35254903737</v>
+        <v>606.1489296234541</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1434.777728553651</v>
+        <v>-1445.699910459067</v>
       </c>
       <c r="J5">
-        <v>1802.549314176863</v>
+        <v>1842.798650583341</v>
       </c>
       <c r="K5">
-        <v>882.7891681365312</v>
+        <v>836.7943274909084</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1425.521424340295</v>
+        <v>-1334.718272473393</v>
       </c>
       <c r="J6">
-        <v>1857.721504985721</v>
+        <v>1789.672280707013</v>
       </c>
       <c r="K6">
-        <v>1077.636825564515</v>
+        <v>1148.71929965119</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1393.552387445316</v>
+        <v>-1369.83626164666</v>
       </c>
       <c r="J7">
-        <v>1792.150365309682</v>
+        <v>1818.985102896574</v>
       </c>
       <c r="K7">
-        <v>1307.648254584017</v>
+        <v>1388.463064538329</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1311.179640912641</v>
+        <v>-1293.973527652984</v>
       </c>
       <c r="J8">
-        <v>1729.109681102047</v>
+        <v>1661.216326919093</v>
       </c>
       <c r="K8">
-        <v>1562.575468781283</v>
+        <v>1621.285507068813</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.0686854751118</v>
+        <v>-98.17281009067666</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1277.073090989629</v>
+        <v>-1237.133249346171</v>
       </c>
       <c r="J9">
-        <v>1599.130536336385</v>
+        <v>1607.974563954611</v>
       </c>
       <c r="K9">
-        <v>1802.657044501859</v>
+        <v>1880.277754884164</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.3981987525374</v>
+        <v>221.6194876538789</v>
       </c>
       <c r="G10">
-        <v>-83.37521174470527</v>
+        <v>-87.18550400321507</v>
       </c>
       <c r="H10">
-        <v>891.5502659214442</v>
+        <v>840.0908431042678</v>
       </c>
       <c r="I10">
-        <v>-1257.520952539994</v>
+        <v>-1252.095889841163</v>
       </c>
       <c r="J10">
-        <v>1531.54114790391</v>
+        <v>1601.254327936496</v>
       </c>
       <c r="K10">
-        <v>2073.588458128526</v>
+        <v>2010.705732886258</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>165.282896373235</v>
+        <v>173.8518113214694</v>
       </c>
       <c r="G11">
-        <v>-66.07960873014432</v>
+        <v>-64.12256587092986</v>
       </c>
       <c r="H11">
-        <v>1051.232661736128</v>
+        <v>1029.895573287636</v>
       </c>
       <c r="I11">
-        <v>-1234.874292219776</v>
+        <v>-1148.680294887922</v>
       </c>
       <c r="J11">
-        <v>1548.518734207431</v>
+        <v>1544.71097345991</v>
       </c>
       <c r="K11">
-        <v>2160.426353648672</v>
+        <v>2240.54654213656</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.5798672202515</v>
+        <v>143.4529740802138</v>
       </c>
       <c r="G12">
-        <v>-49.53700250729048</v>
+        <v>-48.08532986574388</v>
       </c>
       <c r="H12">
-        <v>1123.361205071705</v>
+        <v>1135.850712338688</v>
       </c>
       <c r="I12">
-        <v>-1210.077019927135</v>
+        <v>-1165.578130666215</v>
       </c>
       <c r="J12">
-        <v>1533.369894113162</v>
+        <v>1537.136478902876</v>
       </c>
       <c r="K12">
-        <v>2426.784763217132</v>
+        <v>2424.347474820547</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.8156216152153</v>
+        <v>116.0631657711841</v>
       </c>
       <c r="G13">
-        <v>-34.27996479982131</v>
+        <v>-34.05428469590988</v>
       </c>
       <c r="H13">
-        <v>1316.779553470856</v>
+        <v>1288.071514281984</v>
       </c>
       <c r="I13">
-        <v>-1075.593064511991</v>
+        <v>-1105.325813798543</v>
       </c>
       <c r="J13">
-        <v>1406.468143417165</v>
+        <v>1528.031375001901</v>
       </c>
       <c r="K13">
-        <v>2556.522524589825</v>
+        <v>2429.013860513231</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.5612777059584</v>
+        <v>107.1990715201523</v>
       </c>
       <c r="G14">
-        <v>-16.82173023105854</v>
+        <v>-17.53583151999016</v>
       </c>
       <c r="H14">
-        <v>1367.757205660903</v>
+        <v>1341.454342910043</v>
       </c>
       <c r="I14">
-        <v>-1107.069003040799</v>
+        <v>-1074.012832683349</v>
       </c>
       <c r="J14">
-        <v>1457.067656662938</v>
+        <v>1439.811398598043</v>
       </c>
       <c r="K14">
-        <v>2733.680839722218</v>
+        <v>2743.08527824318</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.88026976115212</v>
+        <v>102.2050082334243</v>
       </c>
       <c r="G15">
-        <v>-0.8830243114985321</v>
+        <v>-0.961869029901083</v>
       </c>
       <c r="H15">
-        <v>1402.690098102283</v>
+        <v>1339.976143705892</v>
       </c>
       <c r="I15">
-        <v>-1066.727559272493</v>
+        <v>-1039.571638707243</v>
       </c>
       <c r="J15">
-        <v>1377.723853565763</v>
+        <v>1423.293977268514</v>
       </c>
       <c r="K15">
-        <v>2860.751892687294</v>
+        <v>2821.542563388276</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.6610608758569</v>
+        <v>93.26945191719312</v>
       </c>
       <c r="G16">
-        <v>15.0218765032289</v>
+        <v>15.43387165727731</v>
       </c>
       <c r="H16">
-        <v>1472.815779372309</v>
+        <v>1423.308854090518</v>
       </c>
       <c r="I16">
-        <v>-971.1023672839672</v>
+        <v>-1012.343248017174</v>
       </c>
       <c r="J16">
-        <v>1282.932654883919</v>
+        <v>1265.260459253206</v>
       </c>
       <c r="K16">
-        <v>2937.693271437367</v>
+        <v>2966.537680978625</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.66467668412528</v>
+        <v>87.87124000208239</v>
       </c>
       <c r="G17">
-        <v>33.22686620729588</v>
+        <v>31.82665993578305</v>
       </c>
       <c r="H17">
-        <v>1402.384536339151</v>
+        <v>1417.864349401218</v>
       </c>
       <c r="I17">
-        <v>-1010.09919832749</v>
+        <v>-971.6006845335506</v>
       </c>
       <c r="J17">
-        <v>1233.12554084472</v>
+        <v>1255.067876087947</v>
       </c>
       <c r="K17">
-        <v>2954.803008414869</v>
+        <v>2914.058447804214</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.42040990452062</v>
+        <v>79.85639255296465</v>
       </c>
       <c r="G18">
-        <v>46.91953263049044</v>
+        <v>46.47150283670101</v>
       </c>
       <c r="H18">
-        <v>1525.365848830291</v>
+        <v>1466.901876998889</v>
       </c>
       <c r="I18">
-        <v>-894.361158118615</v>
+        <v>-916.7321212545747</v>
       </c>
       <c r="J18">
-        <v>1227.423558172508</v>
+        <v>1191.253684009008</v>
       </c>
       <c r="K18">
-        <v>3136.326210168937</v>
+        <v>2917.460954332319</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.80044633383146</v>
+        <v>76.00343331431483</v>
       </c>
       <c r="G19">
-        <v>65.89994179405338</v>
+        <v>65.46798210830477</v>
       </c>
       <c r="H19">
-        <v>1559.551524808841</v>
+        <v>1551.644325760648</v>
       </c>
       <c r="I19">
-        <v>-914.7355427468767</v>
+        <v>-907.6469910243593</v>
       </c>
       <c r="J19">
-        <v>1152.374266733036</v>
+        <v>1160.019369229115</v>
       </c>
       <c r="K19">
-        <v>3085.406092393768</v>
+        <v>3109.47217128145</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.71635485244363</v>
+        <v>77.23247985206301</v>
       </c>
       <c r="G20">
-        <v>83.91609367789755</v>
+        <v>80.42617779319475</v>
       </c>
       <c r="H20">
-        <v>1610.391874354846</v>
+        <v>1607.815275632143</v>
       </c>
       <c r="I20">
-        <v>-835.2533394288199</v>
+        <v>-870.0681198784507</v>
       </c>
       <c r="J20">
-        <v>1141.370523476239</v>
+        <v>1170.75354303288</v>
       </c>
       <c r="K20">
-        <v>3239.326497722975</v>
+        <v>3211.607961743078</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.31246496974428</v>
+        <v>70.43318263294086</v>
       </c>
       <c r="G21">
-        <v>98.98167204254274</v>
+        <v>96.24897923104913</v>
       </c>
       <c r="H21">
-        <v>1544.682745382811</v>
+        <v>1524.302337091257</v>
       </c>
       <c r="I21">
-        <v>-815.3029497094242</v>
+        <v>-774.5237518622217</v>
       </c>
       <c r="J21">
-        <v>1101.552668794681</v>
+        <v>1081.329372877831</v>
       </c>
       <c r="K21">
-        <v>3178.208948388211</v>
+        <v>3298.74804825034</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.50115969046287</v>
+        <v>67.73543992174007</v>
       </c>
       <c r="G22">
-        <v>114.4439089456154</v>
+        <v>111.1947412194275</v>
       </c>
       <c r="H22">
-        <v>1685.397225199809</v>
+        <v>1558.86058555665</v>
       </c>
       <c r="I22">
-        <v>-741.5960051085348</v>
+        <v>-721.7557509237225</v>
       </c>
       <c r="J22">
-        <v>1019.960626495785</v>
+        <v>1059.381717807777</v>
       </c>
       <c r="K22">
-        <v>3196.13881847038</v>
+        <v>3144.519621878173</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.59586060069235</v>
+        <v>68.65057847864779</v>
       </c>
       <c r="G23">
-        <v>124.6489292027568</v>
+        <v>137.2837649939781</v>
       </c>
       <c r="H23">
-        <v>1669.461457226689</v>
+        <v>1685.350679887284</v>
       </c>
       <c r="I23">
-        <v>-684.0804463757958</v>
+        <v>-669.3460893121431</v>
       </c>
       <c r="J23">
-        <v>961.8196992047829</v>
+        <v>995.1037958439875</v>
       </c>
       <c r="K23">
-        <v>3322.67009260897</v>
+        <v>3192.795270102411</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.02408600669381</v>
+        <v>64.25146990108641</v>
       </c>
       <c r="G24">
-        <v>152.2136018831128</v>
+        <v>142.2039895861728</v>
       </c>
       <c r="H24">
-        <v>1627.132647220667</v>
+        <v>1723.075325258493</v>
       </c>
       <c r="I24">
-        <v>-660.8157878451796</v>
+        <v>-665.3106749940495</v>
       </c>
       <c r="J24">
-        <v>894.0253533513524</v>
+        <v>907.1824052750014</v>
       </c>
       <c r="K24">
-        <v>3284.045843867226</v>
+        <v>3298.049868251524</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.69068446385965</v>
+        <v>60.53666302584137</v>
       </c>
       <c r="G25">
-        <v>165.3828014081873</v>
+        <v>168.2483201249616</v>
       </c>
       <c r="H25">
-        <v>1673.603800133508</v>
+        <v>1750.489957000537</v>
       </c>
       <c r="I25">
-        <v>-602.6011718679072</v>
+        <v>-598.8102757415645</v>
       </c>
       <c r="J25">
-        <v>900.1551665069408</v>
+        <v>866.8924458472925</v>
       </c>
       <c r="K25">
-        <v>3293.251632426716</v>
+        <v>3169.043276725931</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.634558590292</v>
+        <v>61.29782025142705</v>
       </c>
       <c r="G26">
-        <v>179.3539097273059</v>
+        <v>178.698834649166</v>
       </c>
       <c r="H26">
-        <v>1620.107566617331</v>
+        <v>1628.261406013971</v>
       </c>
       <c r="I26">
-        <v>-563.8090023730732</v>
+        <v>-533.511311842438</v>
       </c>
       <c r="J26">
-        <v>831.0856462334286</v>
+        <v>861.0158637377939</v>
       </c>
       <c r="K26">
-        <v>2977.470979248119</v>
+        <v>3196.152480956333</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.75442945885358</v>
+        <v>55.50541800439225</v>
       </c>
       <c r="G27">
-        <v>205.8002362291516</v>
+        <v>206.7179994225185</v>
       </c>
       <c r="H27">
-        <v>1640.689551456703</v>
+        <v>1690.582044107493</v>
       </c>
       <c r="I27">
-        <v>-479.2046113530945</v>
+        <v>-496.8598857021541</v>
       </c>
       <c r="J27">
-        <v>761.5726309482868</v>
+        <v>805.9380933275763</v>
       </c>
       <c r="K27">
-        <v>2969.216809719954</v>
+        <v>3181.474108198035</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.77661149827433</v>
+        <v>57.13450142249131</v>
       </c>
       <c r="G28">
-        <v>210.0282170568937</v>
+        <v>224.179644729553</v>
       </c>
       <c r="H28">
-        <v>1802.607779639239</v>
+        <v>1754.285854344297</v>
       </c>
       <c r="I28">
-        <v>-449.2808301898235</v>
+        <v>-423.8973786278718</v>
       </c>
       <c r="J28">
-        <v>742.6305010306908</v>
+        <v>746.707860692045</v>
       </c>
       <c r="K28">
-        <v>3028.317349273334</v>
+        <v>2880.321531824285</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.27821881862609</v>
+        <v>53.0111530273642</v>
       </c>
       <c r="G29">
-        <v>240.741219949366</v>
+        <v>240.9234284152958</v>
       </c>
       <c r="H29">
-        <v>1788.022350394187</v>
+        <v>1705.482074478307</v>
       </c>
       <c r="I29">
-        <v>-399.8802287928799</v>
+        <v>-371.2198803471618</v>
       </c>
       <c r="J29">
-        <v>679.6925339638631</v>
+        <v>707.9322546067783</v>
       </c>
       <c r="K29">
-        <v>2905.832025843818</v>
+        <v>2818.683376881463</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.34786408662895</v>
+        <v>54.39488872217965</v>
       </c>
       <c r="G30">
-        <v>245.4352791847554</v>
+        <v>256.2769833556396</v>
       </c>
       <c r="H30">
-        <v>1696.323880636592</v>
+        <v>1773.708602727517</v>
       </c>
       <c r="I30">
-        <v>-331.3932929602808</v>
+        <v>-340.8916313180803</v>
       </c>
       <c r="J30">
-        <v>608.1471894977645</v>
+        <v>666.5130997008347</v>
       </c>
       <c r="K30">
-        <v>2918.647773443819</v>
+        <v>2912.611731836825</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.57646432300054</v>
+        <v>51.24546013716242</v>
       </c>
       <c r="G31">
-        <v>261.591283819591</v>
+        <v>261.9799252058857</v>
       </c>
       <c r="H31">
-        <v>1682.691428917909</v>
+        <v>1833.460427372318</v>
       </c>
       <c r="I31">
-        <v>-275.2238102634594</v>
+        <v>-264.5899940296142</v>
       </c>
       <c r="J31">
-        <v>597.0919214925116</v>
+        <v>599.9283609760381</v>
       </c>
       <c r="K31">
-        <v>2693.215008758893</v>
+        <v>2738.644556135449</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.11597157624414</v>
+        <v>49.3766279355822</v>
       </c>
       <c r="G32">
-        <v>278.2295431559402</v>
+        <v>290.6626271705705</v>
       </c>
       <c r="H32">
-        <v>1794.594572735521</v>
+        <v>1787.561210535464</v>
       </c>
       <c r="I32">
-        <v>-215.0512507622208</v>
+        <v>-216.1958057671025</v>
       </c>
       <c r="J32">
-        <v>555.6467224166938</v>
+        <v>560.1329544290212</v>
       </c>
       <c r="K32">
-        <v>2598.176607098474</v>
+        <v>2550.088618631257</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.78200441320279</v>
+        <v>51.90894455089725</v>
       </c>
       <c r="G33">
-        <v>303.2105676382996</v>
+        <v>285.5558517228349</v>
       </c>
       <c r="H33">
-        <v>1754.117847458477</v>
+        <v>1885.084937001903</v>
       </c>
       <c r="I33">
-        <v>-145.3800880224683</v>
+        <v>-142.7796317735259</v>
       </c>
       <c r="J33">
-        <v>496.6265755707273</v>
+        <v>494.3544812474025</v>
       </c>
       <c r="K33">
-        <v>2395.097002560249</v>
+        <v>2424.57347805821</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.96292659016787</v>
+        <v>48.05538787355097</v>
       </c>
       <c r="G34">
-        <v>297.468805589574</v>
+        <v>307.8385594583784</v>
       </c>
       <c r="H34">
-        <v>1768.638315003476</v>
+        <v>1781.713607784511</v>
       </c>
       <c r="I34">
-        <v>-87.00577102216232</v>
+        <v>-82.62041972461395</v>
       </c>
       <c r="J34">
-        <v>429.4198749940324</v>
+        <v>444.4662170361266</v>
       </c>
       <c r="K34">
-        <v>2128.722710466794</v>
+        <v>2195.268847034197</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.38274887645202</v>
+        <v>49.75135271616892</v>
       </c>
       <c r="G35">
-        <v>333.9229719823147</v>
+        <v>337.4072815488361</v>
       </c>
       <c r="H35">
-        <v>1734.316434943655</v>
+        <v>1782.953191575024</v>
       </c>
       <c r="I35">
-        <v>-18.54622221492181</v>
+        <v>-19.42852687356296</v>
       </c>
       <c r="J35">
-        <v>383.3923892287941</v>
+        <v>403.0866157007536</v>
       </c>
       <c r="K35">
-        <v>1968.242360192147</v>
+        <v>2011.551908921931</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.32809939602183</v>
+        <v>47.37855453099955</v>
       </c>
       <c r="G36">
-        <v>360.9292487059076</v>
+        <v>352.7427297157196</v>
       </c>
       <c r="H36">
-        <v>1776.233126394526</v>
+        <v>1804.80880858341</v>
       </c>
       <c r="I36">
-        <v>45.71308248849498</v>
+        <v>46.51655631785275</v>
       </c>
       <c r="J36">
-        <v>340.1418047097565</v>
+        <v>360.1729155269185</v>
       </c>
       <c r="K36">
-        <v>1828.930003986947</v>
+        <v>1790.246590001118</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.79642010665438</v>
+        <v>46.32743544851184</v>
       </c>
       <c r="G37">
-        <v>377.5478733191999</v>
+        <v>362.6425177778366</v>
       </c>
       <c r="H37">
-        <v>1790.835916374089</v>
+        <v>1813.703848027819</v>
       </c>
       <c r="I37">
-        <v>120.7996822355272</v>
+        <v>113.7205999158958</v>
       </c>
       <c r="J37">
-        <v>300.0706311418186</v>
+        <v>286.4629038625563</v>
       </c>
       <c r="K37">
-        <v>1593.712389206125</v>
+        <v>1629.883310573373</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.71060985770743</v>
+        <v>43.62540456179614</v>
       </c>
       <c r="G38">
-        <v>386.0898853344162</v>
+        <v>375.0412709072091</v>
       </c>
       <c r="H38">
-        <v>1829.761131055378</v>
+        <v>1875.706495803207</v>
       </c>
       <c r="I38">
-        <v>177.3841465385374</v>
+        <v>176.1279559494413</v>
       </c>
       <c r="J38">
-        <v>236.9419175457532</v>
+        <v>243.6337444211174</v>
       </c>
       <c r="K38">
-        <v>1362.318591859969</v>
+        <v>1421.696081644038</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.58101720426635</v>
+        <v>44.97090955713487</v>
       </c>
       <c r="G39">
-        <v>390.4685326295673</v>
+        <v>381.7399497501148</v>
       </c>
       <c r="H39">
-        <v>1811.14287845897</v>
+        <v>1854.241004716055</v>
       </c>
       <c r="I39">
-        <v>248.0924002906236</v>
+        <v>264.8908206099109</v>
       </c>
       <c r="J39">
-        <v>203.7455558846533</v>
+        <v>204.2843209324274</v>
       </c>
       <c r="K39">
-        <v>1120.287453008362</v>
+        <v>1117.499044281446</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.01484815051701</v>
+        <v>44.05160826549158</v>
       </c>
       <c r="G40">
-        <v>400.8064577692006</v>
+        <v>422.4807289627706</v>
       </c>
       <c r="H40">
-        <v>1806.543336367056</v>
+        <v>1944.845844370359</v>
       </c>
       <c r="I40">
-        <v>327.8401314438106</v>
+        <v>328.2187375551231</v>
       </c>
       <c r="J40">
-        <v>147.078604139335</v>
+        <v>157.7619187231828</v>
       </c>
       <c r="K40">
-        <v>919.0267357266105</v>
+        <v>925.0794993321322</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.82799160351133</v>
+        <v>42.10117528497535</v>
       </c>
       <c r="G41">
-        <v>442.0388183778513</v>
+        <v>437.6732702938811</v>
       </c>
       <c r="H41">
-        <v>1944.346096520495</v>
+        <v>1953.054241469264</v>
       </c>
       <c r="I41">
-        <v>385.0234185751727</v>
+        <v>393.2873806100002</v>
       </c>
       <c r="J41">
-        <v>97.52351834169669</v>
+        <v>106.0043764022373</v>
       </c>
       <c r="K41">
-        <v>640.2586423384613</v>
+        <v>594.5000240790719</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.07389586945775</v>
+        <v>40.97073049006023</v>
       </c>
       <c r="G42">
-        <v>432.119024735781</v>
+        <v>454.376660778731</v>
       </c>
       <c r="H42">
-        <v>1890.360068726781</v>
+        <v>1891.6139029699</v>
       </c>
       <c r="I42">
-        <v>471.7070731990497</v>
+        <v>502.7129012749586</v>
       </c>
       <c r="J42">
-        <v>56.00483742607624</v>
+        <v>55.86162551522449</v>
       </c>
       <c r="K42">
-        <v>339.6711110444996</v>
+        <v>351.753686464553</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.26190074305123</v>
+        <v>40.73385207127892</v>
       </c>
       <c r="G43">
-        <v>480.6697059427617</v>
+        <v>481.4631899831002</v>
       </c>
       <c r="H43">
-        <v>1976.918956540474</v>
+        <v>1922.424719133353</v>
       </c>
       <c r="I43">
-        <v>577.5203008355653</v>
+        <v>576.2540183949437</v>
       </c>
       <c r="J43">
-        <v>5.268905634100609</v>
+        <v>5.119443838967437</v>
       </c>
       <c r="K43">
-        <v>32.61523749402296</v>
+        <v>33.45956708654171</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.03149727943484</v>
+        <v>43.50070344783523</v>
       </c>
       <c r="G44">
-        <v>489.6742642300164</v>
+        <v>485.9557066088871</v>
       </c>
       <c r="H44">
-        <v>1901.309108963757</v>
+        <v>1838.54120327529</v>
       </c>
       <c r="I44">
-        <v>663.5693213357137</v>
+        <v>625.4610194881329</v>
       </c>
       <c r="J44">
-        <v>-43.32035250855003</v>
+        <v>-43.9561346612521</v>
       </c>
       <c r="K44">
-        <v>-288.2391601610611</v>
+        <v>-279.9751665231929</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.18128487039345</v>
+        <v>41.86701747667078</v>
       </c>
       <c r="G45">
-        <v>494.5182276706332</v>
+        <v>470.294346831783</v>
       </c>
       <c r="H45">
-        <v>1919.787376547078</v>
+        <v>1923.414117936353</v>
       </c>
       <c r="I45">
-        <v>717.4215690277611</v>
+        <v>751.567992566415</v>
       </c>
       <c r="J45">
-        <v>-88.67431540938942</v>
+        <v>-88.41995049108606</v>
       </c>
       <c r="K45">
-        <v>-589.7924223581534</v>
+        <v>-614.7699713999607</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.94520997349127</v>
+        <v>41.91099059301616</v>
       </c>
       <c r="G46">
-        <v>517.3227056345478</v>
+        <v>492.1416961518966</v>
       </c>
       <c r="H46">
-        <v>1897.112210481637</v>
+        <v>1960.017189056553</v>
       </c>
       <c r="I46">
-        <v>798.6881248749302</v>
+        <v>796.3343100644427</v>
       </c>
       <c r="J46">
-        <v>-138.4114160855434</v>
+        <v>-136.8194538731223</v>
       </c>
       <c r="K46">
-        <v>-959.8055507300821</v>
+        <v>-981.9364598071097</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.28243343879113</v>
+        <v>39.78118117226694</v>
       </c>
       <c r="G47">
-        <v>549.7857201347171</v>
+        <v>518.0831056416728</v>
       </c>
       <c r="H47">
-        <v>1961.097162998263</v>
+        <v>1893.370748279047</v>
       </c>
       <c r="I47">
-        <v>899.802636175321</v>
+        <v>871.3218822148461</v>
       </c>
       <c r="J47">
-        <v>-181.6853538029652</v>
+        <v>-187.1322193670949</v>
       </c>
       <c r="K47">
-        <v>-1294.318323556291</v>
+        <v>-1294.910118644858</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.99348719854547</v>
+        <v>40.59313217215882</v>
       </c>
       <c r="G48">
-        <v>556.7729738043157</v>
+        <v>565.8683396015967</v>
       </c>
       <c r="H48">
-        <v>1980.89016704463</v>
+        <v>2031.626536955828</v>
       </c>
       <c r="I48">
-        <v>964.5644347960748</v>
+        <v>967.3379499679082</v>
       </c>
       <c r="J48">
-        <v>-231.8688407005772</v>
+        <v>-239.03247795277</v>
       </c>
       <c r="K48">
-        <v>-1698.152141423286</v>
+        <v>-1690.383626831719</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.35310878050202</v>
+        <v>38.57122427115314</v>
       </c>
       <c r="G49">
-        <v>557.5775747564882</v>
+        <v>535.7834553619888</v>
       </c>
       <c r="H49">
-        <v>1932.468489823748</v>
+        <v>1864.972291257604</v>
       </c>
       <c r="I49">
-        <v>1043.542654690351</v>
+        <v>1116.464387876183</v>
       </c>
       <c r="J49">
-        <v>-287.5106019475098</v>
+        <v>-274.1594056919173</v>
       </c>
       <c r="K49">
-        <v>-2003.919344357946</v>
+        <v>-2116.217395310648</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.71025287283812</v>
+        <v>38.74779603607519</v>
       </c>
       <c r="G50">
-        <v>576.716946423633</v>
+        <v>582.3935297661791</v>
       </c>
       <c r="H50">
-        <v>1921.182841284648</v>
+        <v>1967.304254755384</v>
       </c>
       <c r="I50">
-        <v>1163.836054200736</v>
+        <v>1180.932314582334</v>
       </c>
       <c r="J50">
-        <v>-330.8138260773171</v>
+        <v>-350.5280845297582</v>
       </c>
       <c r="K50">
-        <v>-2544.946946625218</v>
+        <v>-2619.644905033071</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.49185642451724</v>
+        <v>36.97316782214472</v>
       </c>
       <c r="G51">
-        <v>609.1694306501998</v>
+        <v>603.3585166282666</v>
       </c>
       <c r="H51">
-        <v>1898.119935887113</v>
+        <v>1868.852143610332</v>
       </c>
       <c r="I51">
-        <v>1239.076448738056</v>
+        <v>1211.116270567974</v>
       </c>
       <c r="J51">
-        <v>-400.4267661115248</v>
+        <v>-365.0831098468529</v>
       </c>
       <c r="K51">
-        <v>-2802.00318510722</v>
+        <v>-2959.502516573586</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.42386084611107</v>
+        <v>35.69950689857317</v>
       </c>
       <c r="G52">
-        <v>611.1677435835479</v>
+        <v>598.2123591589544</v>
       </c>
       <c r="H52">
-        <v>1983.106451747712</v>
+        <v>1888.375079416344</v>
       </c>
       <c r="I52">
-        <v>1354.823069439785</v>
+        <v>1363.796974604487</v>
       </c>
       <c r="J52">
-        <v>-416.7913479097287</v>
+        <v>-445.5111697234122</v>
       </c>
       <c r="K52">
-        <v>-3492.974314059895</v>
+        <v>-3327.493826123522</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.87960818535718</v>
+        <v>36.62061912635038</v>
       </c>
       <c r="G53">
-        <v>642.239856670187</v>
+        <v>611.6538194724639</v>
       </c>
       <c r="H53">
-        <v>2025.532477718204</v>
+        <v>2047.436637119731</v>
       </c>
       <c r="I53">
-        <v>1487.64726839899</v>
+        <v>1388.370559948092</v>
       </c>
       <c r="J53">
-        <v>-471.3741046714445</v>
+        <v>-482.4377666335022</v>
       </c>
       <c r="K53">
-        <v>-3711.640268267273</v>
+        <v>-3938.076775262798</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.20624760575416</v>
+        <v>34.94705122083271</v>
       </c>
       <c r="G54">
-        <v>610.9689853441802</v>
+        <v>630.2376009007784</v>
       </c>
       <c r="H54">
-        <v>1913.547558208159</v>
+        <v>2064.944854450516</v>
       </c>
       <c r="I54">
-        <v>1509.517959778787</v>
+        <v>1527.800380689626</v>
       </c>
       <c r="J54">
-        <v>-538.9866517686861</v>
+        <v>-547.6811095215714</v>
       </c>
       <c r="K54">
-        <v>-4347.096291254428</v>
+        <v>-4206.447384141311</v>
       </c>
     </row>
   </sheetData>
